--- a/Versuch6/datasets/stosse.xlsx
+++ b/Versuch6/datasets/stosse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michele Calvanese\Uni\Grundpraktikum\Versuch6\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1BBB216-01FD-4C40-9500-78EF4D8E52C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{73002CF7-70AC-43BF-BCDE-09E7AA85598B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="5616" xr2:uid="{31778D45-214A-4E9C-9F87-862031E98347}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1138,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29FA719-9B06-48B5-8E88-8E620C2DAB58}">
   <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE4" sqref="AE4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
